--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1000_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_1000_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.0003066565871828672</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01238501236826368</v>
+        <v>0.01240347817435212</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008765921310595226</v>
+        <v>0.008743271429556273</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01685067885827691</v>
+        <v>0.01686571995764279</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003799037494135526</v>
+        <v>0.003795988155167946</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002707731825865777</v>
+        <v>0.002717186876501871</v>
       </c>
       <c r="K2" t="n">
-        <v>0.004962009687660045</v>
+        <v>0.004974660335227556</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002829727618124457</v>
+        <v>0.000282968669617826</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001990300470912254</v>
+        <v>0.0001992355552089822</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003790795641208321</v>
+        <v>0.0003798259085468235</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008614192506826264</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003644297473919695</v>
+        <v>0.003644490235944235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003303536610299751</v>
+        <v>0.003301354571010089</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004004916082634546</v>
+        <v>0.004003028176317075</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00336845220779342</v>
+        <v>0.003368629162382049</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003058754729935781</v>
+        <v>0.003056931631734921</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0036932584551208</v>
+        <v>0.003691501476205684</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003812207280813742</v>
+        <v>0.003812411540505595</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003464575058866766</v>
+        <v>0.003462270042620022</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004179791484746225</v>
+        <v>0.004177791236346037</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.001168075837865493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01602930984218338</v>
+        <v>0.01604796841029635</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01206945792089498</v>
+        <v>0.01204462600056636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02085559494091146</v>
+        <v>0.02086874813395986</v>
       </c>
       <c r="I4" t="n">
-        <v>0.007167489701928946</v>
+        <v>0.007164617317549996</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005766486555801559</v>
+        <v>0.005774118508236793</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008655268142780845</v>
+        <v>0.00866616181143324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004095180042626188</v>
+        <v>0.00409538021012342</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003663605105957992</v>
+        <v>0.003661505597829004</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004558871048867057</v>
+        <v>0.004557617144892861</v>
       </c>
     </row>
   </sheetData>
